--- a/scaling-plots/excel-processed/split_merge_cluster.xlsx
+++ b/scaling-plots/excel-processed/split_merge_cluster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">#n iters</t>
   </si>
@@ -121,6 +121,21 @@
     <t xml:space="preserve"># total obj scaling</t>
   </si>
   <si>
+    <t xml:space="preserve">max speedup index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#N thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speedup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#N object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution time</t>
+  </si>
+  <si>
     <t xml:space="preserve">ref obj</t>
   </si>
   <si>
@@ -161,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,6 +197,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,7 +284,812 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Number of object and execution time
+split merge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3316685584563"/>
+          <c:y val="0.0620711921866172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N object</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$5:$AK$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$5:$AM$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1058480604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>989713188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>918795618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>846581166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>774212292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>701103978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>625424904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560436300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>489142674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435577032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>391442940</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>339306660</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294132618</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>244961136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195388056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148321008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99038880</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50452128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25281648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="91136655"/>
+        <c:axId val="30995208"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$5:$AK$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$5:$AN$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>71.575026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.278592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.115796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.671117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.216687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.877794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.819137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.78273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.794451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.850474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.353432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.038707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.519114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.041781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.653717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.194185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.269845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.865019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.845114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="22293379"/>
+        <c:axId val="44920698"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91136655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30995208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30995208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N object</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91136655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22293379"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44920698"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44920698"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22293379"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>756360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>493200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="34048440" y="542520"/>
+        <a:ext cx="7928640" cy="4459680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -262,16 +1097,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK11" activeCellId="0" sqref="AK11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO25" activeCellId="0" sqref="AO25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,6 +1221,21 @@
       <c r="AG4" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="AI4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -474,8 +1325,8 @@
         <v>0.00254781197608536</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <f aca="false">E5 / E$121</f>
-        <v>1.6422857173167</v>
+        <f aca="false">E$121 / E5</f>
+        <v>0.608907444944405</v>
       </c>
       <c r="AE5" s="1" t="n">
         <f aca="false">D5 / P5</f>
@@ -488,6 +1339,26 @@
       <c r="AG5" s="0" t="n">
         <f aca="false">D5 / D$121</f>
         <v>40.3368813974534</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC5:AC10), AC5:AC10) + 4</f>
+        <v>9</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI5)</f>
+        <v>1584</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI5)</f>
+        <v>1.06940626189923</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI5)</f>
+        <v>1058480604</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI5)</f>
+        <v>71.575026</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,8 +1449,8 @@
         <v>0.000596476311819621</v>
       </c>
       <c r="AC6" s="1" t="n">
-        <f aca="false">E6 / E$121</f>
-        <v>1.14396904392591</v>
+        <f aca="false">E$121 / E6</f>
+        <v>0.874149528179689</v>
       </c>
       <c r="AE6" s="1" t="n">
         <f aca="false">D6 / P6</f>
@@ -592,6 +1463,26 @@
       <c r="AG6" s="0" t="n">
         <f aca="false">D6 / D$121</f>
         <v>40.0815815908613</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC11:AC16), AC11:AC16) + 10</f>
+        <v>15</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI6)</f>
+        <v>1476</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI6)</f>
+        <v>1.03048238986544</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI6)</f>
+        <v>989713188</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI6)</f>
+        <v>74.278592</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,8 +1573,8 @@
         <v>0.000489461509024034</v>
       </c>
       <c r="AC7" s="1" t="n">
-        <f aca="false">E7 / E$121</f>
-        <v>1.13058289585794</v>
+        <f aca="false">E$121 / E7</f>
+        <v>0.884499494609065</v>
       </c>
       <c r="AE7" s="1" t="n">
         <f aca="false">D7 / P7</f>
@@ -696,6 +1587,26 @@
       <c r="AG7" s="0" t="n">
         <f aca="false">D7 / D$121</f>
         <v>39.6819453451178</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC17:AC22), AC17:AC22) + 16</f>
+        <v>21</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI7)</f>
+        <v>1368</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI7)</f>
+        <v>1.03274585352898</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI7)</f>
+        <v>918795618</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI7)</f>
+        <v>74.115796</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,8 +1697,8 @@
         <v>0.0011238138433436</v>
       </c>
       <c r="AC8" s="1" t="n">
-        <f aca="false">E8 / E$121</f>
-        <v>1.02165969119936</v>
+        <f aca="false">E$121 / E8</f>
+        <v>0.978799504976134</v>
       </c>
       <c r="AE8" s="1" t="n">
         <f aca="false">D8 / P8</f>
@@ -800,6 +1711,26 @@
       <c r="AG8" s="0" t="n">
         <f aca="false">D8 / D$121</f>
         <v>39.6111655434216</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC23:AC28), AC23:AC28) + 22</f>
+        <v>27</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI8)</f>
+        <v>1260</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI8)</f>
+        <v>1.03897950943244</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI8)</f>
+        <v>846581166</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI8)</f>
+        <v>73.671117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,8 +1821,8 @@
         <v>0.000468683029189539</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <f aca="false">E9 / E$121</f>
-        <v>0.935098321029125</v>
+        <f aca="false">E$121 / E9</f>
+        <v>1.06940626189923</v>
       </c>
       <c r="AE9" s="1" t="n">
         <f aca="false">D9 / P9</f>
@@ -904,6 +1835,26 @@
       <c r="AG9" s="0" t="n">
         <f aca="false">D9 / D$121</f>
         <v>39.0937804773643</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC29:AC34), AC29:AC34) + 28</f>
+        <v>33</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI9)</f>
+        <v>1152</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI9)</f>
+        <v>1.05990435423879</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI9)</f>
+        <v>774212292</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI9)</f>
+        <v>72.216687</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,8 +1945,8 @@
         <v>0.000344447190365397</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <f aca="false">E10 / E$121</f>
-        <v>0.983123581569371</v>
+        <f aca="false">E$121 / E10</f>
+        <v>1.01716612107268</v>
       </c>
       <c r="AE10" s="1" t="n">
         <f aca="false">D10 / P10</f>
@@ -1008,6 +1959,26 @@
       <c r="AG10" s="0" t="n">
         <f aca="false">D10 / D$121</f>
         <v>38.7598306685672</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC35:AC40), AC35:AC40) + 34</f>
+        <v>39</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI10)</f>
+        <v>1044</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI10)</f>
+        <v>1.07992611903243</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI10)</f>
+        <v>701103978</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI10)</f>
+        <v>70.877794</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,8 +2069,8 @@
         <v>0.00256268752449814</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <f aca="false">E11 / E$121</f>
-        <v>1.64656328596161</v>
+        <f aca="false">E$121 / E11</f>
+        <v>0.607325578388558</v>
       </c>
       <c r="AE11" s="1" t="n">
         <f aca="false">D11 / P11</f>
@@ -1112,6 +2083,26 @@
       <c r="AG11" s="0" t="n">
         <f aca="false">D11 / D$121</f>
         <v>37.5602565308123</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC41:AC46), AC41:AC46) + 40</f>
+        <v>46</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI11)</f>
+        <v>936</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI11)</f>
+        <v>1.08082058384869</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI11)</f>
+        <v>625424904</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI11)</f>
+        <v>70.819137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,8 +2193,8 @@
         <v>0.000774304123221517</v>
       </c>
       <c r="AC12" s="1" t="n">
-        <f aca="false">E12 / E$121</f>
-        <v>1.09162895453198</v>
+        <f aca="false">E$121 / E12</f>
+        <v>0.916062180146861</v>
       </c>
       <c r="AE12" s="1" t="n">
         <f aca="false">D12 / P12</f>
@@ -1216,6 +2207,26 @@
       <c r="AG12" s="0" t="n">
         <f aca="false">D12 / D$121</f>
         <v>37.6295727542123</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC47:AC52), AC47:AC52) + 46</f>
+        <v>51</v>
+      </c>
+      <c r="AK12" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI12)</f>
+        <v>828</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI12)</f>
+        <v>1.08137650243216</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI12)</f>
+        <v>560436300</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI12)</f>
+        <v>70.78273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,8 +2317,8 @@
         <v>0.000436905630308548</v>
       </c>
       <c r="AC13" s="1" t="n">
-        <f aca="false">E13 / E$121</f>
-        <v>1.05212097010167</v>
+        <f aca="false">E$121 / E13</f>
+        <v>0.950461048127729</v>
       </c>
       <c r="AE13" s="1" t="n">
         <f aca="false">D13 / P13</f>
@@ -1320,6 +2331,26 @@
       <c r="AG13" s="0" t="n">
         <f aca="false">D13 / D$121</f>
         <v>37.100564933023</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC53:AC58), AC53:AC58) + 52</f>
+        <v>57</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI13)</f>
+        <v>720</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI13)</f>
+        <v>1.11263015966215</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI13)</f>
+        <v>489142674</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI13)</f>
+        <v>68.794451</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,8 +2441,8 @@
         <v>0.00105233348448379</v>
       </c>
       <c r="AC14" s="1" t="n">
-        <f aca="false">E14 / E$121</f>
-        <v>1.02176909407041</v>
+        <f aca="false">E$121 / E14</f>
+        <v>0.978694702945368</v>
       </c>
       <c r="AE14" s="1" t="n">
         <f aca="false">D14 / P14</f>
@@ -1424,6 +2455,26 @@
       <c r="AG14" s="0" t="n">
         <f aca="false">D14 / D$121</f>
         <v>36.9886812105828</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC59:AC64), AC59:AC64) + 58</f>
+        <v>64</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI14)</f>
+        <v>648</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI14)</f>
+        <v>1.06530655594562</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI14)</f>
+        <v>435577032</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI14)</f>
+        <v>71.850474</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,8 +2565,8 @@
         <v>0.000552218329609694</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <f aca="false">E15 / E$121</f>
-        <v>0.970419300547755</v>
+        <f aca="false">E$121 / E15</f>
+        <v>1.03048238986544</v>
       </c>
       <c r="AE15" s="1" t="n">
         <f aca="false">D15 / P15</f>
@@ -1528,6 +2579,26 @@
       <c r="AG15" s="0" t="n">
         <f aca="false">D15 / D$121</f>
         <v>36.5539339700781</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC65:AC70), AC65:AC70) + 64</f>
+        <v>69</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI15)</f>
+        <v>576</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI15)</f>
+        <v>1.10366248349469</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI15)</f>
+        <v>391442940</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI15)</f>
+        <v>69.353432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,8 +2689,8 @@
         <v>0.000333009379331276</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <f aca="false">E16 / E$121</f>
-        <v>0.975775716850424</v>
+        <f aca="false">E$121 / E16</f>
+        <v>1.02482566713975</v>
       </c>
       <c r="AE16" s="1" t="n">
         <f aca="false">D16 / P16</f>
@@ -1632,6 +2703,26 @@
       <c r="AG16" s="0" t="n">
         <f aca="false">D16 / D$121</f>
         <v>36.1784295735077</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC71:AC76), AC71:AC76) + 70</f>
+        <v>76</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI16)</f>
+        <v>504</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI16)</f>
+        <v>1.04797557547124</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI16)</f>
+        <v>339306660</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI16)</f>
+        <v>73.038707</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,8 +2813,8 @@
         <v>0.00268008668346869</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <f aca="false">E17 / E$121</f>
-        <v>1.53194416858201</v>
+        <f aca="false">E$121 / E17</f>
+        <v>0.652765303402417</v>
       </c>
       <c r="AE17" s="1" t="n">
         <f aca="false">D17 / P17</f>
@@ -1736,6 +2827,26 @@
       <c r="AG17" s="0" t="n">
         <f aca="false">D17 / D$121</f>
         <v>34.7850848640512</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC77:AC82), AC77:AC82) + 76</f>
+        <v>81</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI17)</f>
+        <v>432</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI17)</f>
+        <v>1.07024229914258</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI17)</f>
+        <v>294132618</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI17)</f>
+        <v>71.519114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,8 +2937,8 @@
         <v>0.00061269194116738</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <f aca="false">E18 / E$121</f>
-        <v>1.11923657438054</v>
+        <f aca="false">E$121 / E18</f>
+        <v>0.893466156208722</v>
       </c>
       <c r="AE18" s="1" t="n">
         <f aca="false">D18 / P18</f>
@@ -1840,6 +2951,26 @@
       <c r="AG18" s="0" t="n">
         <f aca="false">D18 / D$121</f>
         <v>34.7991989930942</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC83:AC88), AC83:AC88) + 82</f>
+        <v>88</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI18)</f>
+        <v>360</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI18)</f>
+        <v>1.07743330646511</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI18)</f>
+        <v>244961136</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI18)</f>
+        <v>71.041781</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,8 +3061,8 @@
         <v>0.00037392413534844</v>
       </c>
       <c r="AC19" s="1" t="n">
-        <f aca="false">E19 / E$121</f>
-        <v>1.0648403015302</v>
+        <f aca="false">E$121 / E19</f>
+        <v>0.939107956904878</v>
       </c>
       <c r="AE19" s="1" t="n">
         <f aca="false">D19 / P19</f>
@@ -1944,6 +3075,26 @@
       <c r="AG19" s="0" t="n">
         <f aca="false">D19 / D$121</f>
         <v>34.4616987317871</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC89:AC94), AC89:AC94) + 88</f>
+        <v>94</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI19)</f>
+        <v>288</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI19)</f>
+        <v>1.06823182668947</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI19)</f>
+        <v>195388056</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI19)</f>
+        <v>71.653717</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,8 +3185,8 @@
         <v>0.000714343394267417</v>
       </c>
       <c r="AC20" s="1" t="n">
-        <f aca="false">E20 / E$121</f>
-        <v>1.01051925458522</v>
+        <f aca="false">E$121 / E20</f>
+        <v>0.98959024824367</v>
       </c>
       <c r="AE20" s="1" t="n">
         <f aca="false">D20 / P20</f>
@@ -2048,6 +3199,26 @@
       <c r="AG20" s="0" t="n">
         <f aca="false">D20 / D$121</f>
         <v>34.2840865785952</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC95:AC100), AC95:AC100) + 94</f>
+        <v>99</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI20)</f>
+        <v>216</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI20)</f>
+        <v>1.04574948132833</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI20)</f>
+        <v>148321008</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI20)</f>
+        <v>73.194185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,8 +3309,8 @@
         <v>0.000453061315026556</v>
       </c>
       <c r="AC21" s="1" t="n">
-        <f aca="false">E21 / E$121</f>
-        <v>0.968292437663063</v>
+        <f aca="false">E$121 / E21</f>
+        <v>1.03274585352898</v>
       </c>
       <c r="AE21" s="1" t="n">
         <f aca="false">D21 / P21</f>
@@ -2152,6 +3323,26 @@
       <c r="AG21" s="0" t="n">
         <f aca="false">D21 / D$121</f>
         <v>33.9346739637151</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC101:AC106), AC101:AC106) + 101</f>
+        <v>106</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI21)</f>
+        <v>144</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI21)</f>
+        <v>0.953568316968844</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI21)</f>
+        <v>99038880</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI21)</f>
+        <v>80.269845</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,8 +3433,8 @@
         <v>0.000323031501730385</v>
       </c>
       <c r="AC22" s="1" t="n">
-        <f aca="false">E22 / E$121</f>
-        <v>0.987432949424714</v>
+        <f aca="false">E$121 / E22</f>
+        <v>1.01272699131886</v>
       </c>
       <c r="AE22" s="1" t="n">
         <f aca="false">D22 / P22</f>
@@ -2256,6 +3447,26 @@
       <c r="AG22" s="0" t="n">
         <f aca="false">D22 / D$121</f>
         <v>33.5907393797962</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC107:AC112), AC107:AC112) + 106</f>
+        <v>111</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI22)</f>
+        <v>72</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI22)</f>
+        <v>0.946549966185008</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI22)</f>
+        <v>50452128</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI22)</f>
+        <v>80.865019</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,8 +3557,8 @@
         <v>0.00188502553730981</v>
       </c>
       <c r="AC23" s="1" t="n">
-        <f aca="false">E23 / E$121</f>
-        <v>1.72717075696531</v>
+        <f aca="false">E$121 / E23</f>
+        <v>0.578981548852199</v>
       </c>
       <c r="AE23" s="1" t="n">
         <f aca="false">D23 / P23</f>
@@ -2360,6 +3571,26 @@
       <c r="AG23" s="0" t="n">
         <f aca="false">D23 / D$121</f>
         <v>32.1604512756994</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <f aca="false"> MATCH(MAX(AC113:AC118), AC113:AC118) + 112</f>
+        <v>118</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <f aca="false">INDEX(P$1:P$118,$AI23)</f>
+        <v>36</v>
+      </c>
+      <c r="AL23" s="0" t="n">
+        <f aca="false">INDEX(AC$1:AC$118,$AI23)</f>
+        <v>0.983270202417585</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <f aca="false">INDEX(D$1:D$118,$AI23)</f>
+        <v>25281648</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <f aca="false">INDEX(E$1:E$118,$AI23)</f>
+        <v>77.845114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,8 +3681,8 @@
         <v>0.000473470957131652</v>
       </c>
       <c r="AC24" s="1" t="n">
-        <f aca="false">E24 / E$121</f>
-        <v>1.11816014367181</v>
+        <f aca="false">E$121 / E24</f>
+        <v>0.894326278448991</v>
       </c>
       <c r="AE24" s="1" t="n">
         <f aca="false">D24 / P24</f>
@@ -2554,8 +3785,8 @@
         <v>0.000481797105104823</v>
       </c>
       <c r="AC25" s="1" t="n">
-        <f aca="false">E25 / E$121</f>
-        <v>1.02990690918325</v>
+        <f aca="false">E$121 / E25</f>
+        <v>0.970961541362061</v>
       </c>
       <c r="AE25" s="1" t="n">
         <f aca="false">D25 / P25</f>
@@ -2658,8 +3889,8 @@
         <v>0.000708130902595893</v>
       </c>
       <c r="AC26" s="1" t="n">
-        <f aca="false">E26 / E$121</f>
-        <v>0.974755529198763</v>
+        <f aca="false">E$121 / E26</f>
+        <v>1.02589825863516</v>
       </c>
       <c r="AE26" s="1" t="n">
         <f aca="false">D26 / P26</f>
@@ -2762,8 +3993,8 @@
         <v>0.000534157775834999</v>
       </c>
       <c r="AC27" s="1" t="n">
-        <f aca="false">E27 / E$121</f>
-        <v>0.962482889144046</v>
+        <f aca="false">E$121 / E27</f>
+        <v>1.03897950943244</v>
       </c>
       <c r="AE27" s="1" t="n">
         <f aca="false">D27 / P27</f>
@@ -2866,8 +4097,8 @@
         <v>0.000327657848141647</v>
       </c>
       <c r="AC28" s="1" t="n">
-        <f aca="false">E28 / E$121</f>
-        <v>0.989360263771968</v>
+        <f aca="false">E$121 / E28</f>
+        <v>1.01075415762855</v>
       </c>
       <c r="AE28" s="1" t="n">
         <f aca="false">D28 / P28</f>
@@ -2970,8 +4201,8 @@
         <v>0.00184880391104566</v>
       </c>
       <c r="AC29" s="1" t="n">
-        <f aca="false">E29 / E$121</f>
-        <v>1.46912013818782</v>
+        <f aca="false">E$121 / E29</f>
+        <v>0.680679526477334</v>
       </c>
       <c r="AE29" s="1" t="n">
         <f aca="false">D29 / P29</f>
@@ -3074,8 +4305,8 @@
         <v>0.00055984215923917</v>
       </c>
       <c r="AC30" s="1" t="n">
-        <f aca="false">E30 / E$121</f>
-        <v>1.10300889119772</v>
+        <f aca="false">E$121 / E30</f>
+        <v>0.906611005568716</v>
       </c>
       <c r="AE30" s="1" t="n">
         <f aca="false">D30 / P30</f>
@@ -3178,8 +4409,8 @@
         <v>0.000448407010265239</v>
       </c>
       <c r="AC31" s="1" t="n">
-        <f aca="false">E31 / E$121</f>
-        <v>1.0772581936891</v>
+        <f aca="false">E$121 / E31</f>
+        <v>0.928282565738003</v>
       </c>
       <c r="AE31" s="1" t="n">
         <f aca="false">D31 / P31</f>
@@ -3282,8 +4513,8 @@
         <v>0.00117024647689088</v>
       </c>
       <c r="AC32" s="1" t="n">
-        <f aca="false">E32 / E$121</f>
-        <v>1.01525086996774</v>
+        <f aca="false">E$121 / E32</f>
+        <v>0.984978225166926</v>
       </c>
       <c r="AE32" s="1" t="n">
         <f aca="false">D32 / P32</f>
@@ -3386,8 +4617,8 @@
         <v>0.000458038181673995</v>
       </c>
       <c r="AC33" s="1" t="n">
-        <f aca="false">E33 / E$121</f>
-        <v>0.943481358483695</v>
+        <f aca="false">E$121 / E33</f>
+        <v>1.05990435423879</v>
       </c>
       <c r="AE33" s="1" t="n">
         <f aca="false">D33 / P33</f>
@@ -3490,8 +4721,8 @@
         <v>0.000377486507324595</v>
       </c>
       <c r="AC34" s="1" t="n">
-        <f aca="false">E34 / E$121</f>
-        <v>0.953143445362927</v>
+        <f aca="false">E$121 / E34</f>
+        <v>1.04916002398698</v>
       </c>
       <c r="AE34" s="1" t="n">
         <f aca="false">D34 / P34</f>
@@ -3594,8 +4825,8 @@
         <v>0.00146559183849865</v>
       </c>
       <c r="AC35" s="1" t="n">
-        <f aca="false">E35 / E$121</f>
-        <v>1.50365738605709</v>
+        <f aca="false">E$121 / E35</f>
+        <v>0.665045115511463</v>
       </c>
       <c r="AE35" s="1" t="n">
         <f aca="false">D35 / P35</f>
@@ -3698,8 +4929,8 @@
         <v>0.000355075648340424</v>
       </c>
       <c r="AC36" s="1" t="n">
-        <f aca="false">E36 / E$121</f>
-        <v>1.12541255850111</v>
+        <f aca="false">E$121 / E36</f>
+        <v>0.888563036236116</v>
       </c>
       <c r="AE36" s="1" t="n">
         <f aca="false">D36 / P36</f>
@@ -3802,8 +5033,8 @@
         <v>0.000501586682917904</v>
       </c>
       <c r="AC37" s="1" t="n">
-        <f aca="false">E37 / E$121</f>
-        <v>1.06082280966509</v>
+        <f aca="false">E$121 / E37</f>
+        <v>0.942664496736928</v>
       </c>
       <c r="AE37" s="1" t="n">
         <f aca="false">D37 / P37</f>
@@ -3906,8 +5137,8 @@
         <v>0.000938631835135132</v>
       </c>
       <c r="AC38" s="1" t="n">
-        <f aca="false">E38 / E$121</f>
-        <v>1.01942375205834</v>
+        <f aca="false">E$121 / E38</f>
+        <v>0.980946341480544</v>
       </c>
       <c r="AE38" s="1" t="n">
         <f aca="false">D38 / P38</f>
@@ -4010,8 +5241,8 @@
         <v>0.000534229380784622</v>
       </c>
       <c r="AC39" s="1" t="n">
-        <f aca="false">E39 / E$121</f>
-        <v>0.925989271280854</v>
+        <f aca="false">E$121 / E39</f>
+        <v>1.07992611903243</v>
       </c>
       <c r="AE39" s="1" t="n">
         <f aca="false">D39 / P39</f>
@@ -4114,8 +5345,8 @@
         <v>0.000340689745272029</v>
       </c>
       <c r="AC40" s="1" t="n">
-        <f aca="false">E40 / E$121</f>
-        <v>0.979010874977223</v>
+        <f aca="false">E$121 / E40</f>
+        <v>1.02143911325118</v>
       </c>
       <c r="AE40" s="1" t="n">
         <f aca="false">D40 / P40</f>
@@ -4218,8 +5449,8 @@
         <v>0.00143160386192614</v>
       </c>
       <c r="AC41" s="1" t="n">
-        <f aca="false">E41 / E$121</f>
-        <v>1.65327387307759</v>
+        <f aca="false">E$121 / E41</f>
+        <v>0.60486046279706</v>
       </c>
       <c r="AE41" s="1" t="n">
         <f aca="false">D41 / P41</f>
@@ -4322,8 +5553,8 @@
         <v>0.000377360777527818</v>
       </c>
       <c r="AC42" s="1" t="n">
-        <f aca="false">E42 / E$121</f>
-        <v>1.10156944780985</v>
+        <f aca="false">E$121 / E42</f>
+        <v>0.907795692762006</v>
       </c>
       <c r="AE42" s="1" t="n">
         <f aca="false">D42 / P42</f>
@@ -4426,8 +5657,8 @@
         <v>0.000505266357537316</v>
       </c>
       <c r="AC43" s="1" t="n">
-        <f aca="false">E43 / E$121</f>
-        <v>1.06625834512075</v>
+        <f aca="false">E$121 / E43</f>
+        <v>0.937859013789715</v>
       </c>
       <c r="AE43" s="1" t="n">
         <f aca="false">D43 / P43</f>
@@ -4530,8 +5761,8 @@
         <v>0.000594331452398552</v>
       </c>
       <c r="AC44" s="1" t="n">
-        <f aca="false">E44 / E$121</f>
-        <v>1.01174317144291</v>
+        <f aca="false">E$121 / E44</f>
+        <v>0.988393130021168</v>
       </c>
       <c r="AE44" s="1" t="n">
         <f aca="false">D44 / P44</f>
@@ -4634,8 +5865,8 @@
         <v>0.000465210175256387</v>
       </c>
       <c r="AC45" s="1" t="n">
-        <f aca="false">E45 / E$121</f>
-        <v>0.934299904781354</v>
+        <f aca="false">E$121 / E45</f>
+        <v>1.07032013476874</v>
       </c>
       <c r="AE45" s="1" t="n">
         <f aca="false">D45 / P45</f>
@@ -4738,8 +5969,8 @@
         <v>0.00034394658042783</v>
       </c>
       <c r="AC46" s="1" t="n">
-        <f aca="false">E46 / E$121</f>
-        <v>0.925222941664479</v>
+        <f aca="false">E$121 / E46</f>
+        <v>1.08082058384869</v>
       </c>
       <c r="AE46" s="1" t="n">
         <f aca="false">D46 / P46</f>
@@ -4842,8 +6073,8 @@
         <v>0.00196265687173706</v>
       </c>
       <c r="AC47" s="1" t="n">
-        <f aca="false">E47 / E$121</f>
-        <v>1.49213309874383</v>
+        <f aca="false">E$121 / E47</f>
+        <v>0.67018150112873</v>
       </c>
       <c r="AE47" s="1" t="n">
         <f aca="false">D47 / P47</f>
@@ -4946,8 +6177,8 @@
         <v>0.000468812895266036</v>
       </c>
       <c r="AC48" s="1" t="n">
-        <f aca="false">E48 / E$121</f>
-        <v>1.09805856152522</v>
+        <f aca="false">E$121 / E48</f>
+        <v>0.910698240548286</v>
       </c>
       <c r="AE48" s="1" t="n">
         <f aca="false">D48 / P48</f>
@@ -5050,8 +6281,8 @@
         <v>0.000513223431964311</v>
       </c>
       <c r="AC49" s="1" t="n">
-        <f aca="false">E49 / E$121</f>
-        <v>0.998967792926154</v>
+        <f aca="false">E$121 / E49</f>
+        <v>1.00103327362619</v>
       </c>
       <c r="AE49" s="1" t="n">
         <f aca="false">D49 / P49</f>
@@ -5154,8 +6385,8 @@
         <v>0.000798573274374113</v>
       </c>
       <c r="AC50" s="1" t="n">
-        <f aca="false">E50 / E$121</f>
-        <v>0.950838146317155</v>
+        <f aca="false">E$121 / E50</f>
+        <v>1.05170370359378</v>
       </c>
       <c r="AE50" s="1" t="n">
         <f aca="false">D50 / P50</f>
@@ -5258,8 +6489,8 @@
         <v>0.00047439537864674</v>
       </c>
       <c r="AC51" s="1" t="n">
-        <f aca="false">E51 / E$121</f>
-        <v>0.924747299160714</v>
+        <f aca="false">E$121 / E51</f>
+        <v>1.08137650243216</v>
       </c>
       <c r="AE51" s="1" t="n">
         <f aca="false">D51 / P51</f>
@@ -5362,8 +6593,8 @@
         <v>0.000341799813091255</v>
       </c>
       <c r="AC52" s="1" t="n">
-        <f aca="false">E52 / E$121</f>
-        <v>0.940131114389481</v>
+        <f aca="false">E$121 / E52</f>
+        <v>1.06368142134025</v>
       </c>
       <c r="AE52" s="1" t="n">
         <f aca="false">D52 / P52</f>
@@ -5466,8 +6697,8 @@
         <v>0.00196323073895979</v>
       </c>
       <c r="AC53" s="1" t="n">
-        <f aca="false">E53 / E$121</f>
-        <v>1.57396822307776</v>
+        <f aca="false">E$121 / E53</f>
+        <v>0.635336841835718</v>
       </c>
       <c r="AE53" s="1" t="n">
         <f aca="false">D53 / P53</f>
@@ -5570,8 +6801,8 @@
         <v>0.000481960827768893</v>
       </c>
       <c r="AC54" s="1" t="n">
-        <f aca="false">E54 / E$121</f>
-        <v>1.1148632814896</v>
+        <f aca="false">E$121 / E54</f>
+        <v>0.896970970883416</v>
       </c>
       <c r="AE54" s="1" t="n">
         <f aca="false">D54 / P54</f>
@@ -5674,8 +6905,8 @@
         <v>0.000570137458929653</v>
       </c>
       <c r="AC55" s="1" t="n">
-        <f aca="false">E55 / E$121</f>
-        <v>1.05987852727745</v>
+        <f aca="false">E$121 / E55</f>
+        <v>0.943504349096252</v>
       </c>
       <c r="AE55" s="1" t="n">
         <f aca="false">D55 / P55</f>
@@ -5778,8 +7009,8 @@
         <v>0.000862955900641452</v>
       </c>
       <c r="AC56" s="1" t="n">
-        <f aca="false">E56 / E$121</f>
-        <v>0.978138108151571</v>
+        <f aca="false">E$121 / E56</f>
+        <v>1.02235051642119</v>
       </c>
       <c r="AE56" s="1" t="n">
         <f aca="false">D56 / P56</f>
@@ -5882,8 +7113,8 @@
         <v>0.00050850031494546</v>
       </c>
       <c r="AC57" s="1" t="n">
-        <f aca="false">E57 / E$121</f>
-        <v>0.898771250550721</v>
+        <f aca="false">E$121 / E57</f>
+        <v>1.11263015966215</v>
       </c>
       <c r="AE57" s="1" t="n">
         <f aca="false">D57 / P57</f>
@@ -5986,8 +7217,8 @@
         <v>0.000351679488799411</v>
       </c>
       <c r="AC58" s="1" t="n">
-        <f aca="false">E58 / E$121</f>
-        <v>0.948974691682551</v>
+        <f aca="false">E$121 / E58</f>
+        <v>1.05376888210473</v>
       </c>
       <c r="AE58" s="1" t="n">
         <f aca="false">D58 / P58</f>
@@ -6090,8 +7321,8 @@
         <v>0.000890366881715454</v>
       </c>
       <c r="AC59" s="1" t="n">
-        <f aca="false">E59 / E$121</f>
-        <v>1.44650515115201</v>
+        <f aca="false">E$121 / E59</f>
+        <v>0.691321423365546</v>
       </c>
       <c r="AE59" s="1" t="n">
         <f aca="false">D59 / P59</f>
@@ -6194,8 +7425,8 @@
         <v>0.00038371017756504</v>
       </c>
       <c r="AC60" s="1" t="n">
-        <f aca="false">E60 / E$121</f>
-        <v>1.06703233058647</v>
+        <f aca="false">E$121 / E60</f>
+        <v>0.937178725831456</v>
       </c>
       <c r="AE60" s="1" t="n">
         <f aca="false">D60 / P60</f>
@@ -6298,8 +7529,8 @@
         <v>0.00051681109525931</v>
       </c>
       <c r="AC61" s="1" t="n">
-        <f aca="false">E61 / E$121</f>
-        <v>1.01743866609707</v>
+        <f aca="false">E$121 / E61</f>
+        <v>0.982860228652442</v>
       </c>
       <c r="AE61" s="1" t="n">
         <f aca="false">D61 / P61</f>
@@ -6402,8 +7633,8 @@
         <v>0.000707750580136158</v>
       </c>
       <c r="AC62" s="1" t="n">
-        <f aca="false">E62 / E$121</f>
-        <v>0.979912619062012</v>
+        <f aca="false">E$121 / E62</f>
+        <v>1.02049915527898</v>
       </c>
       <c r="AE62" s="1" t="n">
         <f aca="false">D62 / P62</f>
@@ -6506,8 +7737,8 @@
         <v>0.000416754832764931</v>
       </c>
       <c r="AC63" s="1" t="n">
-        <f aca="false">E63 / E$121</f>
-        <v>0.938915362900128</v>
+        <f aca="false">E$121 / E63</f>
+        <v>1.06505872575265</v>
       </c>
       <c r="AE63" s="1" t="n">
         <f aca="false">D63 / P63</f>
@@ -6610,8 +7841,8 @@
         <v>0.000334848173722556</v>
       </c>
       <c r="AC64" s="1" t="n">
-        <f aca="false">E64 / E$121</f>
-        <v>0.938696936031107</v>
+        <f aca="false">E$121 / E64</f>
+        <v>1.06530655594562</v>
       </c>
       <c r="AE64" s="1" t="n">
         <f aca="false">D64 / P64</f>
@@ -6714,8 +7945,8 @@
         <v>0.00107000731037635</v>
       </c>
       <c r="AC65" s="1" t="n">
-        <f aca="false">E65 / E$121</f>
-        <v>1.4442865879148</v>
+        <f aca="false">E$121 / E65</f>
+        <v>0.692383359623768</v>
       </c>
       <c r="AE65" s="1" t="n">
         <f aca="false">D65 / P65</f>
@@ -6818,8 +8049,8 @@
         <v>0.000483278450692717</v>
       </c>
       <c r="AC66" s="1" t="n">
-        <f aca="false">E66 / E$121</f>
-        <v>1.05732464829048</v>
+        <f aca="false">E$121 / E66</f>
+        <v>0.945783304699118</v>
       </c>
       <c r="AE66" s="1" t="n">
         <f aca="false">D66 / P66</f>
@@ -6922,8 +8153,8 @@
         <v>0.000535049832796456</v>
       </c>
       <c r="AC67" s="1" t="n">
-        <f aca="false">E67 / E$121</f>
-        <v>1.03874566564285</v>
+        <f aca="false">E$121 / E67</f>
+        <v>0.96269956455715</v>
       </c>
       <c r="AE67" s="1" t="n">
         <f aca="false">D67 / P67</f>
@@ -7026,8 +8257,8 @@
         <v>0.000602374846162025</v>
       </c>
       <c r="AC68" s="1" t="n">
-        <f aca="false">E68 / E$121</f>
-        <v>1.00322191063322</v>
+        <f aca="false">E$121 / E68</f>
+        <v>0.996788436736609</v>
       </c>
       <c r="AE68" s="1" t="n">
         <f aca="false">D68 / P68</f>
@@ -7130,8 +8361,8 @@
         <v>0.000455464121804383</v>
       </c>
       <c r="AC69" s="1" t="n">
-        <f aca="false">E69 / E$121</f>
-        <v>0.906074107759424</v>
+        <f aca="false">E$121 / E69</f>
+        <v>1.10366248349469</v>
       </c>
       <c r="AE69" s="1" t="n">
         <f aca="false">D69 / P69</f>
@@ -7234,8 +8465,8 @@
         <v>0.000380345406869547</v>
       </c>
       <c r="AC70" s="1" t="n">
-        <f aca="false">E70 / E$121</f>
-        <v>0.918740083405122</v>
+        <f aca="false">E$121 / E70</f>
+        <v>1.08844712238276</v>
       </c>
       <c r="AE70" s="1" t="n">
         <f aca="false">D70 / P70</f>
@@ -7338,8 +8569,8 @@
         <v>0.00108092700999898</v>
       </c>
       <c r="AC71" s="1" t="n">
-        <f aca="false">E71 / E$121</f>
-        <v>1.36562580604433</v>
+        <f aca="false">E$121 / E71</f>
+        <v>0.732265014013315</v>
       </c>
       <c r="AE71" s="1" t="n">
         <f aca="false">D71 / P71</f>
@@ -7442,8 +8673,8 @@
         <v>0.000428159143845717</v>
       </c>
       <c r="AC72" s="1" t="n">
-        <f aca="false">E72 / E$121</f>
-        <v>1.03239022632324</v>
+        <f aca="false">E$121 / E72</f>
+        <v>0.968625985119413</v>
       </c>
       <c r="AE72" s="1" t="n">
         <f aca="false">D72 / P72</f>
@@ -7546,8 +8777,8 @@
         <v>0.000426364581239519</v>
       </c>
       <c r="AC73" s="1" t="n">
-        <f aca="false">E73 / E$121</f>
-        <v>1.04721504696831</v>
+        <f aca="false">E$121 / E73</f>
+        <v>0.954913704587232</v>
       </c>
       <c r="AE73" s="1" t="n">
         <f aca="false">D73 / P73</f>
@@ -7650,8 +8881,8 @@
         <v>0.000702193385284846</v>
       </c>
       <c r="AC74" s="1" t="n">
-        <f aca="false">E74 / E$121</f>
-        <v>0.996989004096938</v>
+        <f aca="false">E$121 / E74</f>
+        <v>1.00302008937981</v>
       </c>
       <c r="AE74" s="1" t="n">
         <f aca="false">D74 / P74</f>
@@ -7754,8 +8985,8 @@
         <v>0.00040093363205481</v>
       </c>
       <c r="AC75" s="1" t="n">
-        <f aca="false">E75 / E$121</f>
-        <v>0.956805580398235</v>
+        <f aca="false">E$121 / E75</f>
+        <v>1.04514440601798</v>
       </c>
       <c r="AE75" s="1" t="n">
         <f aca="false">D75 / P75</f>
@@ -7858,8 +9089,8 @@
         <v>0.000318557117940218</v>
       </c>
       <c r="AC76" s="1" t="n">
-        <f aca="false">E76 / E$121</f>
-        <v>0.954220712205374</v>
+        <f aca="false">E$121 / E76</f>
+        <v>1.04797557547124</v>
       </c>
       <c r="AE76" s="1" t="n">
         <f aca="false">D76 / P76</f>
@@ -7962,8 +9193,8 @@
         <v>0.00167032151479148</v>
       </c>
       <c r="AC77" s="1" t="n">
-        <f aca="false">E77 / E$121</f>
-        <v>1.40251483676821</v>
+        <f aca="false">E$121 / E77</f>
+        <v>0.713004934981138</v>
       </c>
       <c r="AE77" s="1" t="n">
         <f aca="false">D77 / P77</f>
@@ -8066,8 +9297,8 @@
         <v>0.000428814862276161</v>
       </c>
       <c r="AC78" s="1" t="n">
-        <f aca="false">E78 / E$121</f>
-        <v>1.05810975172172</v>
+        <f aca="false">E$121 / E78</f>
+        <v>0.945081546004877</v>
       </c>
       <c r="AE78" s="1" t="n">
         <f aca="false">D78 / P78</f>
@@ -8170,8 +9401,8 @@
         <v>0.000377634632690179</v>
       </c>
       <c r="AC79" s="1" t="n">
-        <f aca="false">E79 / E$121</f>
-        <v>1.06607097278057</v>
+        <f aca="false">E$121 / E79</f>
+        <v>0.938023851631342</v>
       </c>
       <c r="AE79" s="1" t="n">
         <f aca="false">D79 / P79</f>
@@ -8274,8 +9505,8 @@
         <v>0.000733396016154106</v>
       </c>
       <c r="AC80" s="1" t="n">
-        <f aca="false">E80 / E$121</f>
-        <v>0.968698067032605</v>
+        <f aca="false">E$121 / E80</f>
+        <v>1.0323134050048</v>
       </c>
       <c r="AE80" s="1" t="n">
         <f aca="false">D80 / P80</f>
@@ -8378,8 +9609,8 @@
         <v>0.000493280719333296</v>
       </c>
       <c r="AC81" s="1" t="n">
-        <f aca="false">E81 / E$121</f>
-        <v>0.934367853710463</v>
+        <f aca="false">E$121 / E81</f>
+        <v>1.07024229914258</v>
       </c>
       <c r="AE81" s="1" t="n">
         <f aca="false">D81 / P81</f>
@@ -8482,8 +9713,8 @@
         <v>0.000322877494242551</v>
       </c>
       <c r="AC82" s="1" t="n">
-        <f aca="false">E82 / E$121</f>
-        <v>0.939348349519728</v>
+        <f aca="false">E$121 / E82</f>
+        <v>1.06456779373837</v>
       </c>
       <c r="AE82" s="1" t="n">
         <f aca="false">D82 / P82</f>
@@ -8586,8 +9817,8 @@
         <v>0.00104945364179961</v>
       </c>
       <c r="AC83" s="1" t="n">
-        <f aca="false">E83 / E$121</f>
-        <v>1.44435134908412</v>
+        <f aca="false">E$121 / E83</f>
+        <v>0.692352314853387</v>
       </c>
       <c r="AE83" s="1" t="n">
         <f aca="false">D83 / P83</f>
@@ -8690,8 +9921,8 @@
         <v>0.000380044304389879</v>
       </c>
       <c r="AC84" s="1" t="n">
-        <f aca="false">E84 / E$121</f>
-        <v>1.04683288160121</v>
+        <f aca="false">E$121 / E84</f>
+        <v>0.955262313188356</v>
       </c>
       <c r="AE84" s="1" t="n">
         <f aca="false">D84 / P84</f>
@@ -8794,8 +10025,8 @@
         <v>0.000408207980516837</v>
       </c>
       <c r="AC85" s="1" t="n">
-        <f aca="false">E85 / E$121</f>
-        <v>1.04121013058044</v>
+        <f aca="false">E$121 / E85</f>
+        <v>0.960420928139197</v>
       </c>
       <c r="AE85" s="1" t="n">
         <f aca="false">D85 / P85</f>
@@ -8898,8 +10129,8 @@
         <v>0.000721597394309917</v>
       </c>
       <c r="AC86" s="1" t="n">
-        <f aca="false">E86 / E$121</f>
-        <v>0.973492849704533</v>
+        <f aca="false">E$121 / E86</f>
+        <v>1.02722891113531</v>
       </c>
       <c r="AE86" s="1" t="n">
         <f aca="false">D86 / P86</f>
@@ -9002,8 +10233,8 @@
         <v>0.00050692224653231</v>
       </c>
       <c r="AC87" s="1" t="n">
-        <f aca="false">E87 / E$121</f>
-        <v>0.935124789887109</v>
+        <f aca="false">E$121 / E87</f>
+        <v>1.06937599218252</v>
       </c>
       <c r="AE87" s="1" t="n">
         <f aca="false">D87 / P87</f>
@@ -9106,8 +10337,8 @@
         <v>0.000373977110737131</v>
       </c>
       <c r="AC88" s="1" t="n">
-        <f aca="false">E88 / E$121</f>
-        <v>0.928131694091439</v>
+        <f aca="false">E$121 / E88</f>
+        <v>1.07743330646511</v>
       </c>
       <c r="AE88" s="1" t="n">
         <f aca="false">D88 / P88</f>
@@ -9210,8 +10441,8 @@
         <v>0.00115541401921872</v>
       </c>
       <c r="AC89" s="1" t="n">
-        <f aca="false">E89 / E$121</f>
-        <v>1.40490687162255</v>
+        <f aca="false">E$121 / E89</f>
+        <v>0.711790952267949</v>
       </c>
       <c r="AE89" s="1" t="n">
         <f aca="false">D89 / P89</f>
@@ -9314,8 +10545,8 @@
         <v>0.000379606857088425</v>
       </c>
       <c r="AC90" s="1" t="n">
-        <f aca="false">E90 / E$121</f>
-        <v>1.05771014512786</v>
+        <f aca="false">E$121 / E90</f>
+        <v>0.94543860111989</v>
       </c>
       <c r="AE90" s="1" t="n">
         <f aca="false">D90 / P90</f>
@@ -9418,8 +10649,8 @@
         <v>0.000511975526019981</v>
       </c>
       <c r="AC91" s="1" t="n">
-        <f aca="false">E91 / E$121</f>
-        <v>1.01153335413826</v>
+        <f aca="false">E$121 / E91</f>
+        <v>0.988598147464863</v>
       </c>
       <c r="AE91" s="1" t="n">
         <f aca="false">D91 / P91</f>
@@ -9522,8 +10753,8 @@
         <v>0.000690471363261552</v>
       </c>
       <c r="AC92" s="1" t="n">
-        <f aca="false">E92 / E$121</f>
-        <v>0.990300992591319</v>
+        <f aca="false">E$121 / E92</f>
+        <v>1.00979399948222</v>
       </c>
       <c r="AE92" s="1" t="n">
         <f aca="false">D92 / P92</f>
@@ -9626,8 +10857,8 @@
         <v>0.000478470655893497</v>
       </c>
       <c r="AC93" s="1" t="n">
-        <f aca="false">E93 / E$121</f>
-        <v>0.960941045504997</v>
+        <f aca="false">E$121 / E93</f>
+        <v>1.04064656690201</v>
       </c>
       <c r="AE93" s="1" t="n">
         <f aca="false">D93 / P93</f>
@@ -9730,8 +10961,8 @@
         <v>0.000337260940699001</v>
       </c>
       <c r="AC94" s="1" t="n">
-        <f aca="false">E94 / E$121</f>
-        <v>0.936126386628152</v>
+        <f aca="false">E$121 / E94</f>
+        <v>1.06823182668947</v>
       </c>
       <c r="AE94" s="1" t="n">
         <f aca="false">D94 / P94</f>
@@ -9834,8 +11065,8 @@
         <v>0.00112228425392185</v>
       </c>
       <c r="AC95" s="1" t="n">
-        <f aca="false">E95 / E$121</f>
-        <v>1.64586101202673</v>
+        <f aca="false">E$121 / E95</f>
+        <v>0.607584718692979</v>
       </c>
       <c r="AE95" s="1" t="n">
         <f aca="false">D95 / P95</f>
@@ -9938,8 +11169,8 @@
         <v>0.000392136740745195</v>
       </c>
       <c r="AC96" s="1" t="n">
-        <f aca="false">E96 / E$121</f>
-        <v>1.08491564998141</v>
+        <f aca="false">E$121 / E96</f>
+        <v>0.921730643315111</v>
       </c>
       <c r="AE96" s="1" t="n">
         <f aca="false">D96 / P96</f>
@@ -10042,8 +11273,8 @@
         <v>0.000414506894660746</v>
       </c>
       <c r="AC97" s="1" t="n">
-        <f aca="false">E97 / E$121</f>
-        <v>1.03695498077082</v>
+        <f aca="false">E$121 / E97</f>
+        <v>0.964362020091414</v>
       </c>
       <c r="AE97" s="1" t="n">
         <f aca="false">D97 / P97</f>
@@ -10146,8 +11377,8 @@
         <v>0.000694230666145198</v>
       </c>
       <c r="AC98" s="1" t="n">
-        <f aca="false">E98 / E$121</f>
-        <v>1.00925234216405</v>
+        <f aca="false">E$121 / E98</f>
+        <v>0.990832478878165</v>
       </c>
       <c r="AE98" s="1" t="n">
         <f aca="false">D98 / P98</f>
@@ -10250,8 +11481,8 @@
         <v>0.000502389636553778</v>
       </c>
       <c r="AC99" s="1" t="n">
-        <f aca="false">E99 / E$121</f>
-        <v>0.956251968425344</v>
+        <f aca="false">E$121 / E99</f>
+        <v>1.04574948132833</v>
       </c>
       <c r="AE99" s="1" t="n">
         <f aca="false">D99 / P99</f>
@@ -10354,8 +11585,8 @@
         <v>0.000334370263336109</v>
       </c>
       <c r="AC100" s="1" t="n">
-        <f aca="false">E100 / E$121</f>
-        <v>0.965122968291418</v>
+        <f aca="false">E$121 / E100</f>
+        <v>1.03613739684418</v>
       </c>
       <c r="AE100" s="1" t="n">
         <f aca="false">D100 / P100</f>
@@ -10458,8 +11689,8 @@
         <v>0.000907039119810557</v>
       </c>
       <c r="AC101" s="1" t="n">
-        <f aca="false">E101 / E$121</f>
-        <v>1.57752073314399</v>
+        <f aca="false">E$121 / E101</f>
+        <v>0.633906090100638</v>
       </c>
       <c r="AE101" s="1" t="n">
         <f aca="false">D101 / P101</f>
@@ -10562,8 +11793,8 @@
         <v>0.000469290124696242</v>
       </c>
       <c r="AC102" s="1" t="n">
-        <f aca="false">E102 / E$121</f>
-        <v>1.18744666463059</v>
+        <f aca="false">E$121 / E102</f>
+        <v>0.842143087168545</v>
       </c>
       <c r="AE102" s="1" t="n">
         <f aca="false">D102 / P102</f>
@@ -10666,8 +11897,8 @@
         <v>0.000339990957881227</v>
       </c>
       <c r="AC103" s="1" t="n">
-        <f aca="false">E103 / E$121</f>
-        <v>1.14664033437719</v>
+        <f aca="false">E$121 / E103</f>
+        <v>0.872113050639511</v>
       </c>
       <c r="AE103" s="1" t="n">
         <f aca="false">D103 / P103</f>
@@ -10770,8 +12001,8 @@
         <v>0.00110881920557574</v>
       </c>
       <c r="AC104" s="1" t="n">
-        <f aca="false">E104 / E$121</f>
-        <v>1.07283776375985</v>
+        <f aca="false">E$121 / E104</f>
+        <v>0.932107382662795</v>
       </c>
       <c r="AE104" s="1" t="n">
         <f aca="false">D104 / P104</f>
@@ -10874,8 +12105,8 @@
         <v>0.000534724253669911</v>
       </c>
       <c r="AC105" s="1" t="n">
-        <f aca="false">E105 / E$121</f>
-        <v>0.999064692985221</v>
+        <f aca="false">E$121 / E105</f>
+        <v>1.00093618263296</v>
       </c>
       <c r="AE105" s="1" t="n">
         <f aca="false">D105 / P105</f>
@@ -10978,8 +12209,8 @@
         <v>0.000322848511791695</v>
       </c>
       <c r="AC106" s="1" t="n">
-        <f aca="false">E106 / E$121</f>
-        <v>1.04869256056949</v>
+        <f aca="false">E$121 / E106</f>
+        <v>0.953568316968844</v>
       </c>
       <c r="AE106" s="1" t="n">
         <f aca="false">D106 / P106</f>
@@ -11082,8 +12313,8 @@
         <v>0.000654459335296023</v>
       </c>
       <c r="AC107" s="1" t="n">
-        <f aca="false">E107 / E$121</f>
-        <v>1.74611250406488</v>
+        <f aca="false">E$121 / E107</f>
+        <v>0.572700783982726</v>
       </c>
       <c r="AE107" s="1" t="n">
         <f aca="false">D107 / P107</f>
@@ -11186,8 +12417,8 @@
         <v>0.000333860657408817</v>
       </c>
       <c r="AC108" s="1" t="n">
-        <f aca="false">E108 / E$121</f>
-        <v>1.26560269609227</v>
+        <f aca="false">E$121 / E108</f>
+        <v>0.790137381255307</v>
       </c>
       <c r="AE108" s="1" t="n">
         <f aca="false">D108 / P108</f>
@@ -11290,8 +12521,8 @@
         <v>0.000341235938433853</v>
       </c>
       <c r="AC109" s="1" t="n">
-        <f aca="false">E109 / E$121</f>
-        <v>1.26646552076544</v>
+        <f aca="false">E$121 / E109</f>
+        <v>0.78959907206602</v>
       </c>
       <c r="AE109" s="1" t="n">
         <f aca="false">D109 / P109</f>
@@ -11394,8 +12625,8 @@
         <v>0.000455409865960669</v>
       </c>
       <c r="AC110" s="1" t="n">
-        <f aca="false">E110 / E$121</f>
-        <v>1.11904361039613</v>
+        <f aca="false">E$121 / E110</f>
+        <v>0.893620222402248</v>
       </c>
       <c r="AE110" s="1" t="n">
         <f aca="false">D110 / P110</f>
@@ -11498,8 +12729,8 @@
         <v>0.000450132831849084</v>
       </c>
       <c r="AC111" s="1" t="n">
-        <f aca="false">E111 / E$121</f>
-        <v>1.05646826445985</v>
+        <f aca="false">E$121 / E111</f>
+        <v>0.946549966185008</v>
       </c>
       <c r="AE111" s="1" t="n">
         <f aca="false">D111 / P111</f>
@@ -11602,8 +12833,8 @@
         <v>0.000334302468453561</v>
       </c>
       <c r="AC112" s="1" t="n">
-        <f aca="false">E112 / E$121</f>
-        <v>1.08986711627319</v>
+        <f aca="false">E$121 / E112</f>
+        <v>0.917543051871785</v>
       </c>
       <c r="AE112" s="1" t="n">
         <f aca="false">D112 / P112</f>
@@ -11706,8 +12937,8 @@
         <v>0.000822391789397378</v>
       </c>
       <c r="AC113" s="1" t="n">
-        <f aca="false">E113 / E$121</f>
-        <v>1.53377014090983</v>
+        <f aca="false">E$121 / E113</f>
+        <v>0.65198817823302</v>
       </c>
       <c r="AE113" s="1" t="n">
         <f aca="false">D113 / P113</f>
@@ -11810,8 +13041,8 @@
         <v>0.000350830706272445</v>
       </c>
       <c r="AC114" s="1" t="n">
-        <f aca="false">E114 / E$121</f>
-        <v>1.2403198153984</v>
+        <f aca="false">E$121 / E114</f>
+        <v>0.80624367004795</v>
       </c>
       <c r="AE114" s="1" t="n">
         <f aca="false">D114 / P114</f>
@@ -11914,8 +13145,8 @@
         <v>0.000422698477492638</v>
       </c>
       <c r="AC115" s="1" t="n">
-        <f aca="false">E115 / E$121</f>
-        <v>1.17983526101567</v>
+        <f aca="false">E$121 / E115</f>
+        <v>0.847575956612066</v>
       </c>
       <c r="AE115" s="1" t="n">
         <f aca="false">D115 / P115</f>
@@ -12018,8 +13249,8 @@
         <v>0.000390912131505832</v>
       </c>
       <c r="AC116" s="1" t="n">
-        <f aca="false">E116 / E$121</f>
-        <v>1.11628755688926</v>
+        <f aca="false">E$121 / E116</f>
+        <v>0.895826522322509</v>
       </c>
       <c r="AE116" s="1" t="n">
         <f aca="false">D116 / P116</f>
@@ -12122,8 +13353,8 @@
         <v>0.000484346471303716</v>
       </c>
       <c r="AC117" s="1" t="n">
-        <f aca="false">E117 / E$121</f>
-        <v>1.02327216200833</v>
+        <f aca="false">E$121 / E117</f>
+        <v>0.97725711411649</v>
       </c>
       <c r="AE117" s="1" t="n">
         <f aca="false">D117 / P117</f>
@@ -12226,8 +13457,8 @@
         <v>0.000335165544236983</v>
       </c>
       <c r="AC118" s="1" t="n">
-        <f aca="false">E118 / E$121</f>
-        <v>1.01701444581691</v>
+        <f aca="false">E$121 / E118</f>
+        <v>0.983270202417585</v>
       </c>
       <c r="AE118" s="1" t="n">
         <f aca="false">D118 / P118</f>
@@ -12258,37 +13489,37 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12334,5 +13565,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>